--- a/整理表格/现货历史委托记录简版.xlsx
+++ b/整理表格/现货历史委托记录简版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/整理表格/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94AC6B2B-ACB9-1242-A59C-A80D51D256C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85707B04-4464-1943-B483-FF5186A375B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="4500" windowWidth="21740" windowHeight="9880" xr2:uid="{BF63B61F-E5C9-DA45-80AD-A1DE1A8A820B}"/>
   </bookViews>
@@ -308,14 +308,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,6 +631,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CC9197-9D2B-044D-AD60-1476B771C6A6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -641,335 +644,337 @@
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -978,7 +983,7 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>